--- a/Doc/慧数招商工作安排.xlsx
+++ b/Doc/慧数招商工作安排.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="22368" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作安排" sheetId="1" r:id="rId1"/>
+    <sheet name="第一周工作进度" sheetId="2" r:id="rId2"/>
+    <sheet name="接口命名规范" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>序号</t>
   </si>
@@ -226,6 +226,102 @@
   </si>
   <si>
     <t>企业</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>接口命名</t>
+  </si>
+  <si>
+    <t>书写人</t>
+  </si>
+  <si>
+    <t>关键词云</t>
+  </si>
+  <si>
+    <t>/headlines/getWordClond.json</t>
+  </si>
+  <si>
+    <t>媒体聚焦</t>
+  </si>
+  <si>
+    <t>/headlines/getCarClondChartList.json</t>
+  </si>
+  <si>
+    <t>今日头条</t>
+  </si>
+  <si>
+    <t>/headlines/getArticleByVectorList.json</t>
+  </si>
+  <si>
+    <t>文章详情</t>
+  </si>
+  <si>
+    <t>/headlines/getVectorArticleById.json</t>
+  </si>
+  <si>
+    <t>融合</t>
+  </si>
+  <si>
+    <t>/headlines/getArticleByKeyWordList.json</t>
+  </si>
+  <si>
+    <t>/headlines/getKeyWordArticleById.json</t>
+  </si>
+  <si>
+    <t>/area/getGardenPolicyList.json</t>
+  </si>
+  <si>
+    <t>/area/getGardenPolicyById.json</t>
+  </si>
+  <si>
+    <t>/area/getGardenInformationList.json</t>
+  </si>
+  <si>
+    <t>/area/getGardenInformationById.json</t>
+  </si>
+  <si>
+    <t>产业详情</t>
+  </si>
+  <si>
+    <t>/industry/getIndustrialPolicyDetailById.json</t>
+  </si>
+  <si>
+    <t>产业政策列表</t>
+  </si>
+  <si>
+    <t>/industry/getIndustrialPolicyList.json</t>
+  </si>
+  <si>
+    <t>/business/findCompaniesDesc.json</t>
+  </si>
+  <si>
+    <t>/garden/findGardensCondition.json</t>
+  </si>
+  <si>
+    <t>/garden/findGardensList.json</t>
+  </si>
+  <si>
+    <t>/expert/findaExpertOpinion.json</t>
+  </si>
+  <si>
+    <t>/expert/findExpertOpinionByAuthor.json</t>
+  </si>
+  <si>
+    <t>/expert/findExpertOpinionById.json</t>
+  </si>
+  <si>
+    <t>观点收藏</t>
+  </si>
+  <si>
+    <t>/expert/collectExpertOpinion.json</t>
+  </si>
+  <si>
+    <t>专家列表</t>
+  </si>
+  <si>
+    <t>/expert/getSpecialist.json</t>
   </si>
 </sst>
 </file>
@@ -235,10 +331,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,21 +354,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,17 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +389,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,22 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +439,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -383,20 +501,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -413,19 +517,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,139 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,12 +739,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -657,30 +774,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,9 +795,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +827,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,154 +856,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1252,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1288,7 +1410,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1314,7 +1436,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="11">
         <v>42974</v>
       </c>
       <c r="J2" t="s">
@@ -1402,13 +1524,13 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1425,11 +1547,11 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1446,13 +1568,13 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1469,11 +1591,11 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="7"/>
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1490,13 +1612,13 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1513,11 +1635,11 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7"/>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1534,11 +1656,11 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="7"/>
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1555,13 +1677,13 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1575,11 +1697,11 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="7"/>
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1593,11 +1715,11 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="7"/>
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1611,13 +1733,13 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1634,13 +1756,13 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1657,11 +1779,11 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="7"/>
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1678,11 +1800,11 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="7"/>
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1699,11 +1821,11 @@
       <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="7"/>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -1720,13 +1842,13 @@
       <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="11">
         <v>42949</v>
       </c>
     </row>
@@ -2137,14 +2259,276 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D13:D16"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2154,14 +2538,298 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="56.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:B21"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Doc/慧数招商工作安排.xlsx
+++ b/Doc/慧数招商工作安排.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9515" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="工作安排" sheetId="1" r:id="rId1"/>
     <sheet name="第一周工作进度" sheetId="2" r:id="rId2"/>
     <sheet name="接口命名规范" sheetId="3" r:id="rId3"/>
+    <sheet name="第二周工作安排" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>序号</t>
   </si>
@@ -141,6 +142,9 @@
     <t>园区监管</t>
   </si>
   <si>
+    <t>2717/8/4/</t>
+  </si>
+  <si>
     <t>园区企业</t>
   </si>
   <si>
@@ -186,12 +190,18 @@
     <t>企业疑似外流</t>
   </si>
   <si>
+    <t>数据库</t>
+  </si>
+  <si>
     <t>疑似外流详情</t>
   </si>
   <si>
     <t>信息变更预警</t>
   </si>
   <si>
+    <t>对接天眼查接口</t>
+  </si>
+  <si>
     <t>信息变更详情</t>
   </si>
   <si>
@@ -201,6 +211,9 @@
     <t>搜索目标企业</t>
   </si>
   <si>
+    <t>企业数据库</t>
+  </si>
+  <si>
     <t>搜索列表</t>
   </si>
   <si>
@@ -231,6 +244,9 @@
     <t>进度</t>
   </si>
   <si>
+    <t>词云的分词需要鹏飞做分析程序，关键词检索文章可能没有内容</t>
+  </si>
+  <si>
     <t>接口命名</t>
   </si>
   <si>
@@ -297,10 +313,10 @@
     <t>/business/findCompaniesDesc.json</t>
   </si>
   <si>
-    <t>/garden/findGardensCondition.json</t>
-  </si>
-  <si>
-    <t>/garden/findGardensList.json</t>
+    <t>/area/findGardensCondition.json</t>
+  </si>
+  <si>
+    <t>/area/findGardensList.json</t>
   </si>
   <si>
     <t>/expert/findaExpertOpinion.json</t>
@@ -329,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -365,37 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,8 +404,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,17 +473,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,29 +512,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -523,31 +539,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +629,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,24 +695,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -613,12 +707,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,78 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,30 +756,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -778,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +786,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,11 +823,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,137 +872,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1035,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1372,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1433,10 +1461,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="13">
         <v>42974</v>
       </c>
       <c r="J2" t="s">
@@ -1456,6 +1485,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="11"/>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1473,6 +1503,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="11"/>
       <c r="J4" t="s">
         <v>13</v>
       </c>
@@ -1490,6 +1521,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="11"/>
       <c r="J5" t="s">
         <v>13</v>
       </c>
@@ -1507,6 +1539,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="11"/>
       <c r="J6" t="s">
         <v>13</v>
       </c>
@@ -1527,10 +1560,10 @@
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1548,10 +1581,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1571,10 +1604,10 @@
       <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1592,10 +1625,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1615,10 +1648,10 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1636,10 +1669,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1657,10 +1690,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1680,10 +1713,10 @@
       <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1698,10 +1731,10 @@
         <v>32</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1716,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" t="s">
+      <c r="F16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1736,10 +1769,10 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1759,10 +1792,10 @@
       <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1780,10 +1813,10 @@
         <v>25</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" t="s">
+      <c r="F19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1801,10 +1834,10 @@
         <v>37</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" t="s">
+      <c r="F20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1822,10 +1855,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="15">
         <v>42949</v>
       </c>
     </row>
@@ -1845,14 +1878,14 @@
       <c r="E22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="15">
         <v>42949</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1862,8 +1895,17 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1871,384 +1913,575 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="15">
+        <v>42965</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="15">
+        <v>42965</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="15">
+        <v>42965</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>39</v>
-      </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
+      <c r="G41" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="15">
+        <v>42965</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
       <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="15">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J45" t="s">
         <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="15">
+        <v>42965</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="J46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
       <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
       <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2259,19 +2492,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="63.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:5">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2285,10 +2519,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2301,8 +2538,14 @@
       <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2313,6 +2556,9 @@
         <v>22</v>
       </c>
       <c r="D3" s="7"/>
+      <c r="E3" s="9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -2540,8 +2786,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2561,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2575,10 +2821,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -2586,10 +2832,10 @@
     </row>
     <row r="3" spans="3:5">
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -2597,10 +2843,10 @@
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2608,10 +2854,10 @@
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2621,10 +2867,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2634,10 +2880,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -2652,7 +2898,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2665,7 +2911,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2678,7 +2924,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2691,7 +2937,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2703,10 +2949,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
@@ -2716,10 +2962,10 @@
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
@@ -2731,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -2743,7 +2989,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -2755,7 +3001,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -2770,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>27</v>
@@ -2783,7 +3029,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -2796,7 +3042,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
@@ -2805,10 +3051,10 @@
     <row r="20" spans="2:5">
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -2817,10 +3063,10 @@
     <row r="21" spans="2:5">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>27</v>
@@ -2834,4 +3080,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Doc/慧数招商工作安排.xlsx
+++ b/Doc/慧数招商工作安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9515"/>
+    <workbookView windowWidth="22368" windowHeight="9515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作安排" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
     <t>/headlines/getArticleByKeyWordList.json</t>
   </si>
   <si>
-    <t>/headlines/getKeyWordArticleById.json</t>
+    <t>/headlines/getArticleById.json</t>
   </si>
   <si>
     <t>/area/getGardenPolicyList.json</t>
@@ -345,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -381,9 +381,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,51 +459,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,40 +486,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,6 +509,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -545,6 +545,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,163 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,30 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -786,6 +762,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,22 +794,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,16 +815,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,137 +872,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,9 +1034,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1402,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1461,11 +1458,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>42974</v>
       </c>
       <c r="J2" t="s">
@@ -1485,7 +1482,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="7"/>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1500,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="7"/>
       <c r="J4" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1518,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="7"/>
       <c r="J5" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="7"/>
       <c r="J6" t="s">
         <v>13</v>
       </c>
@@ -1560,10 +1557,10 @@
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1581,10 +1578,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1604,10 +1601,10 @@
       <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1625,10 +1622,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1648,10 +1645,10 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1669,10 +1666,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1690,10 +1687,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1713,10 +1710,10 @@
       <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1731,10 +1728,10 @@
         <v>32</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1749,10 +1746,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1769,10 +1766,10 @@
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1792,10 +1789,10 @@
       <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1813,10 +1810,10 @@
         <v>25</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1834,10 +1831,10 @@
         <v>37</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1855,10 +1852,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1878,10 +1875,10 @@
       <c r="E22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>42949</v>
       </c>
     </row>
@@ -1895,13 +1892,13 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -1915,13 +1912,13 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -1938,13 +1935,13 @@
       <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>42965</v>
       </c>
       <c r="J25" t="s">
@@ -1964,11 +1961,11 @@
       <c r="D26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>42965</v>
       </c>
       <c r="J26" t="s">
@@ -1988,13 +1985,13 @@
       <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>42965</v>
       </c>
       <c r="J27" t="s">
@@ -2014,13 +2011,13 @@
       <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>42965</v>
       </c>
       <c r="J28" t="s">
@@ -2040,13 +2037,13 @@
       <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2063,13 +2060,13 @@
       <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2086,11 +2083,11 @@
       <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2107,11 +2104,11 @@
       <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2128,11 +2125,11 @@
       <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2149,13 +2146,13 @@
       <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>42965</v>
       </c>
       <c r="J34" t="s">
@@ -2175,11 +2172,11 @@
       <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2196,11 +2193,11 @@
       <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>42965</v>
       </c>
       <c r="J36" t="s">
@@ -2220,11 +2217,11 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2241,13 +2238,13 @@
       <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>42965</v>
       </c>
       <c r="J38" t="s">
@@ -2267,11 +2264,11 @@
       <c r="D39" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2285,11 +2282,11 @@
       <c r="C40" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2306,13 +2303,13 @@
       <c r="D41" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>42965</v>
       </c>
       <c r="J41" t="s">
@@ -2332,11 +2329,11 @@
       <c r="D42" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>42965</v>
       </c>
       <c r="J42" t="s">
@@ -2356,13 +2353,13 @@
       <c r="D43" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>42965</v>
       </c>
       <c r="J43" t="s">
@@ -2382,13 +2379,13 @@
       <c r="D44" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>42965</v>
       </c>
     </row>
@@ -2405,13 +2402,13 @@
       <c r="D45" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>42965</v>
       </c>
       <c r="J45" t="s">
@@ -2431,11 +2428,11 @@
       <c r="D46" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>42965</v>
       </c>
       <c r="J46" t="s">
@@ -2452,7 +2449,7 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -2467,7 +2464,7 @@
       <c r="D48" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2786,8 +2783,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
